--- a/odds/Pennoni Younglings 2025 Betting Odds.xlsx
+++ b/odds/Pennoni Younglings 2025 Betting Odds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="69">
   <si>
     <t>Record</t>
   </si>
@@ -87,31 +87,31 @@
     <t>100.0%</t>
   </si>
   <si>
-    <t>99.5%</t>
-  </si>
-  <si>
-    <t>93.4%</t>
-  </si>
-  <si>
-    <t>74.8%</t>
-  </si>
-  <si>
-    <t>68.0%</t>
-  </si>
-  <si>
-    <t>56.9%</t>
-  </si>
-  <si>
-    <t>45.3%</t>
-  </si>
-  <si>
-    <t>26.3%</t>
-  </si>
-  <si>
-    <t>19.8%</t>
-  </si>
-  <si>
-    <t>16.0%</t>
+    <t>99.1%</t>
+  </si>
+  <si>
+    <t>93.0%</t>
+  </si>
+  <si>
+    <t>74.9%</t>
+  </si>
+  <si>
+    <t>63.4%</t>
+  </si>
+  <si>
+    <t>58.4%</t>
+  </si>
+  <si>
+    <t>46.0%</t>
+  </si>
+  <si>
+    <t>24.1%</t>
+  </si>
+  <si>
+    <t>22.6%</t>
+  </si>
+  <si>
+    <t>18.5%</t>
   </si>
   <si>
     <t>0.0%</t>
@@ -120,31 +120,31 @@
     <t>-∞</t>
   </si>
   <si>
-    <t>-19900</t>
-  </si>
-  <si>
-    <t>-1415</t>
-  </si>
-  <si>
-    <t>-297</t>
-  </si>
-  <si>
-    <t>-213</t>
-  </si>
-  <si>
-    <t>-132</t>
-  </si>
-  <si>
-    <t>+121</t>
-  </si>
-  <si>
-    <t>+280</t>
-  </si>
-  <si>
-    <t>+405</t>
-  </si>
-  <si>
-    <t>+525</t>
+    <t>-11011</t>
+  </si>
+  <si>
+    <t>-1329</t>
+  </si>
+  <si>
+    <t>-298</t>
+  </si>
+  <si>
+    <t>-173</t>
+  </si>
+  <si>
+    <t>-140</t>
+  </si>
+  <si>
+    <t>+117</t>
+  </si>
+  <si>
+    <t>+315</t>
+  </si>
+  <si>
+    <t>+342</t>
+  </si>
+  <si>
+    <t>+441</t>
   </si>
   <si>
     <t>+∞</t>
@@ -153,70 +153,76 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>54.8%</t>
-  </si>
-  <si>
-    <t>32.5%</t>
-  </si>
-  <si>
-    <t>9.4%</t>
-  </si>
-  <si>
-    <t>3.1%</t>
+    <t>51.2%</t>
+  </si>
+  <si>
+    <t>36.6%</t>
+  </si>
+  <si>
+    <t>8.7%</t>
+  </si>
+  <si>
+    <t>3.4%</t>
+  </si>
+  <si>
+    <t>0.1%</t>
+  </si>
+  <si>
+    <t>-105</t>
+  </si>
+  <si>
+    <t>+173</t>
+  </si>
+  <si>
+    <t>+1049</t>
+  </si>
+  <si>
+    <t>+2841</t>
+  </si>
+  <si>
+    <t>+99900</t>
+  </si>
+  <si>
+    <t>88.6%</t>
+  </si>
+  <si>
+    <t>4.4%</t>
+  </si>
+  <si>
+    <t>3.8%</t>
+  </si>
+  <si>
+    <t>1.8%</t>
+  </si>
+  <si>
+    <t>0.7%</t>
+  </si>
+  <si>
+    <t>0.4%</t>
   </si>
   <si>
     <t>0.2%</t>
   </si>
   <si>
-    <t>-121</t>
-  </si>
-  <si>
-    <t>+208</t>
-  </si>
-  <si>
-    <t>+964</t>
-  </si>
-  <si>
-    <t>+3126</t>
+    <t>-777</t>
+  </si>
+  <si>
+    <t>+2173</t>
+  </si>
+  <si>
+    <t>+2532</t>
+  </si>
+  <si>
+    <t>+5456</t>
+  </si>
+  <si>
+    <t>+14186</t>
+  </si>
+  <si>
+    <t>+24900</t>
   </si>
   <si>
     <t>+49900</t>
-  </si>
-  <si>
-    <t>90.3%</t>
-  </si>
-  <si>
-    <t>3.8%</t>
-  </si>
-  <si>
-    <t>3.4%</t>
-  </si>
-  <si>
-    <t>1.3%</t>
-  </si>
-  <si>
-    <t>0.6%</t>
-  </si>
-  <si>
-    <t>0.4%</t>
-  </si>
-  <si>
-    <t>-931</t>
-  </si>
-  <si>
-    <t>+2532</t>
-  </si>
-  <si>
-    <t>+2841</t>
-  </si>
-  <si>
-    <t>+7592</t>
-  </si>
-  <si>
-    <t>+16567</t>
-  </si>
-  <si>
-    <t>+24900</t>
   </si>
 </sst>
 </file>
@@ -995,7 +1001,7 @@
         <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1009,7 +1015,7 @@
         <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1023,7 +1029,7 @@
         <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1037,12 +1043,12 @@
         <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -1051,12 +1057,12 @@
         <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -1065,43 +1071,43 @@
         <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
@@ -1112,10 +1118,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
         <v>32</v>

--- a/odds/Pennoni Younglings 2025 Betting Odds.xlsx
+++ b/odds/Pennoni Younglings 2025 Betting Odds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="63">
   <si>
     <t>Record</t>
   </si>
@@ -36,82 +36,82 @@
     <t>Eli</t>
   </si>
   <si>
+    <t>Philadelphia Bills Mafia</t>
+  </si>
+  <si>
     <t>Daddy's Finally Home</t>
   </si>
   <si>
-    <t>Philadelphia Bills Mafia</t>
+    <t>Prahlad's Ghost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAI Alcoholics Anonymous </t>
   </si>
   <si>
     <t>Pho_King</t>
   </si>
   <si>
-    <t>Prahlad's Ghost</t>
+    <t>Christian McCalf-Injury</t>
   </si>
   <si>
     <t>cman</t>
   </si>
   <si>
-    <t xml:space="preserve">PAI Alcoholics Anonymous </t>
+    <t>1900 Sleepers</t>
   </si>
   <si>
     <t>Red Zone Risk Assessors</t>
   </si>
   <si>
-    <t>1900 Sleepers</t>
-  </si>
-  <si>
-    <t>Christian McCalf-Injury</t>
-  </si>
-  <si>
     <t>The Golden Receivers</t>
   </si>
   <si>
-    <t>8-3</t>
-  </si>
-  <si>
-    <t>7-4</t>
-  </si>
-  <si>
-    <t>6-5</t>
-  </si>
-  <si>
-    <t>5-6</t>
-  </si>
-  <si>
-    <t>4-7</t>
-  </si>
-  <si>
-    <t>3-8</t>
+    <t>9-3</t>
+  </si>
+  <si>
+    <t>8-4</t>
+  </si>
+  <si>
+    <t>7-5</t>
+  </si>
+  <si>
+    <t>6-6</t>
+  </si>
+  <si>
+    <t>5-7</t>
+  </si>
+  <si>
+    <t>4-8</t>
   </si>
   <si>
     <t>100.0%</t>
   </si>
   <si>
-    <t>99.1%</t>
-  </si>
-  <si>
-    <t>93.0%</t>
-  </si>
-  <si>
-    <t>74.9%</t>
-  </si>
-  <si>
-    <t>63.4%</t>
-  </si>
-  <si>
-    <t>58.4%</t>
-  </si>
-  <si>
-    <t>46.0%</t>
-  </si>
-  <si>
-    <t>24.1%</t>
-  </si>
-  <si>
-    <t>22.6%</t>
-  </si>
-  <si>
-    <t>18.5%</t>
+    <t>99.9%</t>
+  </si>
+  <si>
+    <t>99.7%</t>
+  </si>
+  <si>
+    <t>84.1%</t>
+  </si>
+  <si>
+    <t>76.0%</t>
+  </si>
+  <si>
+    <t>52.6%</t>
+  </si>
+  <si>
+    <t>38.3%</t>
+  </si>
+  <si>
+    <t>31.6%</t>
+  </si>
+  <si>
+    <t>9.3%</t>
+  </si>
+  <si>
+    <t>8.5%</t>
   </si>
   <si>
     <t>0.0%</t>
@@ -120,31 +120,31 @@
     <t>-∞</t>
   </si>
   <si>
-    <t>-11011</t>
-  </si>
-  <si>
-    <t>-1329</t>
-  </si>
-  <si>
-    <t>-298</t>
-  </si>
-  <si>
-    <t>-173</t>
-  </si>
-  <si>
-    <t>-140</t>
-  </si>
-  <si>
-    <t>+117</t>
-  </si>
-  <si>
-    <t>+315</t>
-  </si>
-  <si>
-    <t>+342</t>
-  </si>
-  <si>
-    <t>+441</t>
+    <t>-99900</t>
+  </si>
+  <si>
+    <t>-33233</t>
+  </si>
+  <si>
+    <t>-529</t>
+  </si>
+  <si>
+    <t>-317</t>
+  </si>
+  <si>
+    <t>-111</t>
+  </si>
+  <si>
+    <t>+161</t>
+  </si>
+  <si>
+    <t>+216</t>
+  </si>
+  <si>
+    <t>+975</t>
+  </si>
+  <si>
+    <t>+1076</t>
   </si>
   <si>
     <t>+∞</t>
@@ -153,73 +153,55 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>51.2%</t>
-  </si>
-  <si>
-    <t>36.6%</t>
-  </si>
-  <si>
-    <t>8.7%</t>
-  </si>
-  <si>
-    <t>3.4%</t>
-  </si>
-  <si>
-    <t>0.1%</t>
-  </si>
-  <si>
-    <t>-105</t>
-  </si>
-  <si>
-    <t>+173</t>
-  </si>
-  <si>
-    <t>+1049</t>
-  </si>
-  <si>
-    <t>+2841</t>
-  </si>
-  <si>
-    <t>+99900</t>
-  </si>
-  <si>
-    <t>88.6%</t>
-  </si>
-  <si>
-    <t>4.4%</t>
-  </si>
-  <si>
-    <t>3.8%</t>
-  </si>
-  <si>
-    <t>1.8%</t>
-  </si>
-  <si>
-    <t>0.7%</t>
-  </si>
-  <si>
-    <t>0.4%</t>
+    <t>76.5%</t>
+  </si>
+  <si>
+    <t>20.1%</t>
+  </si>
+  <si>
+    <t>2.6%</t>
+  </si>
+  <si>
+    <t>0.8%</t>
+  </si>
+  <si>
+    <t>-326</t>
+  </si>
+  <si>
+    <t>+398</t>
+  </si>
+  <si>
+    <t>+3746</t>
+  </si>
+  <si>
+    <t>+12400</t>
+  </si>
+  <si>
+    <t>81.6%</t>
+  </si>
+  <si>
+    <t>11.3%</t>
+  </si>
+  <si>
+    <t>4.2%</t>
+  </si>
+  <si>
+    <t>1.9%</t>
   </si>
   <si>
     <t>0.2%</t>
   </si>
   <si>
-    <t>-777</t>
-  </si>
-  <si>
-    <t>+2173</t>
-  </si>
-  <si>
-    <t>+2532</t>
-  </si>
-  <si>
-    <t>+5456</t>
-  </si>
-  <si>
-    <t>+14186</t>
-  </si>
-  <si>
-    <t>+24900</t>
+    <t>-443</t>
+  </si>
+  <si>
+    <t>+785</t>
+  </si>
+  <si>
+    <t>+2281</t>
+  </si>
+  <si>
+    <t>+5163</t>
   </si>
   <si>
     <t>+49900</t>
@@ -619,7 +601,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -633,7 +615,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
@@ -661,7 +643,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
@@ -703,7 +685,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -717,7 +699,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -731,7 +713,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>30</v>
@@ -806,7 +788,7 @@
         <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -814,13 +796,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -828,13 +810,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -848,29 +830,29 @@
         <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
@@ -881,10 +863,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
@@ -909,7 +891,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
@@ -923,7 +905,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
@@ -937,7 +919,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
@@ -951,10 +933,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
         <v>32</v>
@@ -998,38 +980,38 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1037,77 +1019,77 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
@@ -1118,10 +1100,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
         <v>32</v>
@@ -1132,10 +1114,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
         <v>32</v>
@@ -1146,10 +1128,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
         <v>32</v>

--- a/odds/Pennoni Younglings 2025 Betting Odds.xlsx
+++ b/odds/Pennoni Younglings 2025 Betting Odds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="40">
   <si>
     <t>Record</t>
   </si>
@@ -30,88 +30,73 @@
     <t>Team</t>
   </si>
   <si>
+    <t>Daddy's Finally Home</t>
+  </si>
+  <si>
     <t>19th St Halal Cart</t>
   </si>
   <si>
+    <t>Philadelphia Bills Mafia</t>
+  </si>
+  <si>
     <t>Eli</t>
   </si>
   <si>
-    <t>Philadelphia Bills Mafia</t>
-  </si>
-  <si>
-    <t>Daddy's Finally Home</t>
-  </si>
-  <si>
     <t>Prahlad's Ghost</t>
   </si>
   <si>
     <t xml:space="preserve">PAI Alcoholics Anonymous </t>
   </si>
   <si>
+    <t>cman</t>
+  </si>
+  <si>
+    <t>Christian McCalf-Injury</t>
+  </si>
+  <si>
+    <t>Red Zone Risk Assessors</t>
+  </si>
+  <si>
     <t>Pho_King</t>
   </si>
   <si>
-    <t>Christian McCalf-Injury</t>
-  </si>
-  <si>
-    <t>cman</t>
-  </si>
-  <si>
     <t>1900 Sleepers</t>
   </si>
   <si>
-    <t>Red Zone Risk Assessors</t>
-  </si>
-  <si>
     <t>The Golden Receivers</t>
   </si>
   <si>
-    <t>9-3</t>
-  </si>
-  <si>
-    <t>8-4</t>
-  </si>
-  <si>
-    <t>7-5</t>
-  </si>
-  <si>
-    <t>6-6</t>
-  </si>
-  <si>
-    <t>5-7</t>
-  </si>
-  <si>
-    <t>4-8</t>
+    <t>7-6</t>
+  </si>
+  <si>
+    <t>10-3</t>
+  </si>
+  <si>
+    <t>8-5</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>4-9</t>
   </si>
   <si>
     <t>100.0%</t>
   </si>
   <si>
-    <t>99.9%</t>
-  </si>
-  <si>
-    <t>99.7%</t>
-  </si>
-  <si>
-    <t>84.1%</t>
-  </si>
-  <si>
-    <t>76.0%</t>
-  </si>
-  <si>
-    <t>52.6%</t>
-  </si>
-  <si>
-    <t>38.3%</t>
-  </si>
-  <si>
-    <t>31.6%</t>
-  </si>
-  <si>
-    <t>9.3%</t>
-  </si>
-  <si>
-    <t>8.5%</t>
+    <t>59.3%</t>
+  </si>
+  <si>
+    <t>56.3%</t>
+  </si>
+  <si>
+    <t>49.6%</t>
+  </si>
+  <si>
+    <t>20.0%</t>
+  </si>
+  <si>
+    <t>14.8%</t>
   </si>
   <si>
     <t>0.0%</t>
@@ -120,31 +105,19 @@
     <t>-∞</t>
   </si>
   <si>
-    <t>-99900</t>
-  </si>
-  <si>
-    <t>-33233</t>
-  </si>
-  <si>
-    <t>-529</t>
-  </si>
-  <si>
-    <t>-317</t>
-  </si>
-  <si>
-    <t>-111</t>
-  </si>
-  <si>
-    <t>+161</t>
-  </si>
-  <si>
-    <t>+216</t>
-  </si>
-  <si>
-    <t>+975</t>
-  </si>
-  <si>
-    <t>+1076</t>
+    <t>-146</t>
+  </si>
+  <si>
+    <t>-129</t>
+  </si>
+  <si>
+    <t>+102</t>
+  </si>
+  <si>
+    <t>+400</t>
+  </si>
+  <si>
+    <t>+576</t>
   </si>
   <si>
     <t>+∞</t>
@@ -153,58 +126,16 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>76.5%</t>
-  </si>
-  <si>
-    <t>20.1%</t>
-  </si>
-  <si>
-    <t>2.6%</t>
-  </si>
-  <si>
-    <t>0.8%</t>
-  </si>
-  <si>
-    <t>-326</t>
-  </si>
-  <si>
-    <t>+398</t>
-  </si>
-  <si>
-    <t>+3746</t>
-  </si>
-  <si>
-    <t>+12400</t>
-  </si>
-  <si>
-    <t>81.6%</t>
-  </si>
-  <si>
-    <t>11.3%</t>
-  </si>
-  <si>
-    <t>4.2%</t>
-  </si>
-  <si>
-    <t>1.9%</t>
-  </si>
-  <si>
-    <t>0.2%</t>
-  </si>
-  <si>
-    <t>-443</t>
-  </si>
-  <si>
-    <t>+785</t>
-  </si>
-  <si>
-    <t>+2281</t>
-  </si>
-  <si>
-    <t>+5163</t>
-  </si>
-  <si>
-    <t>+49900</t>
+    <t>86.9%</t>
+  </si>
+  <si>
+    <t>13.1%</t>
+  </si>
+  <si>
+    <t>-663</t>
+  </si>
+  <si>
+    <t>+663</t>
   </si>
 </sst>
 </file>
@@ -590,10 +521,10 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -604,10 +535,10 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -618,10 +549,10 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -632,10 +563,10 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -643,13 +574,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -660,10 +591,10 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -674,10 +605,10 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -685,13 +616,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -699,13 +630,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -713,13 +644,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -730,10 +661,10 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -741,13 +672,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -771,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -779,142 +710,142 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -922,27 +853,27 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -966,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -977,167 +908,167 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/odds/Pennoni Younglings 2025 Betting Odds.xlsx
+++ b/odds/Pennoni Younglings 2025 Betting Odds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="27">
   <si>
     <t>Record</t>
   </si>
@@ -36,6 +36,9 @@
     <t>19th St Halal Cart</t>
   </si>
   <si>
+    <t xml:space="preserve">PAI Alcoholics Anonymous </t>
+  </si>
+  <si>
     <t>Philadelphia Bills Mafia</t>
   </si>
   <si>
@@ -45,97 +48,55 @@
     <t>Prahlad's Ghost</t>
   </si>
   <si>
-    <t xml:space="preserve">PAI Alcoholics Anonymous </t>
-  </si>
-  <si>
     <t>cman</t>
   </si>
   <si>
+    <t>1900 Sleepers</t>
+  </si>
+  <si>
+    <t>Pho_King</t>
+  </si>
+  <si>
+    <t>Red Zone Risk Assessors</t>
+  </si>
+  <si>
+    <t>The Golden Receivers</t>
+  </si>
+  <si>
     <t>Christian McCalf-Injury</t>
   </si>
   <si>
-    <t>Red Zone Risk Assessors</t>
-  </si>
-  <si>
-    <t>Pho_King</t>
-  </si>
-  <si>
-    <t>1900 Sleepers</t>
-  </si>
-  <si>
-    <t>The Golden Receivers</t>
-  </si>
-  <si>
-    <t>7-6</t>
-  </si>
-  <si>
-    <t>10-3</t>
-  </si>
-  <si>
-    <t>8-5</t>
-  </si>
-  <si>
-    <t>6-7</t>
-  </si>
-  <si>
-    <t>4-9</t>
+    <t>8-6</t>
+  </si>
+  <si>
+    <t>10-4</t>
+  </si>
+  <si>
+    <t>6-8</t>
+  </si>
+  <si>
+    <t>9-5</t>
+  </si>
+  <si>
+    <t>7-7</t>
+  </si>
+  <si>
+    <t>5-9</t>
   </si>
   <si>
     <t>100.0%</t>
   </si>
   <si>
-    <t>59.3%</t>
-  </si>
-  <si>
-    <t>56.3%</t>
-  </si>
-  <si>
-    <t>49.6%</t>
-  </si>
-  <si>
-    <t>20.0%</t>
-  </si>
-  <si>
-    <t>14.8%</t>
-  </si>
-  <si>
     <t>0.0%</t>
   </si>
   <si>
     <t>-∞</t>
   </si>
   <si>
-    <t>-146</t>
-  </si>
-  <si>
-    <t>-129</t>
-  </si>
-  <si>
-    <t>+102</t>
-  </si>
-  <si>
-    <t>+400</t>
-  </si>
-  <si>
-    <t>+576</t>
-  </si>
-  <si>
     <t>+∞</t>
   </si>
   <si>
     <t>Probability</t>
-  </si>
-  <si>
-    <t>86.9%</t>
-  </si>
-  <si>
-    <t>13.1%</t>
-  </si>
-  <si>
-    <t>-663</t>
-  </si>
-  <si>
-    <t>+663</t>
   </si>
 </sst>
 </file>
@@ -521,10 +482,10 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -535,10 +496,10 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -549,10 +510,10 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -560,13 +521,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -577,10 +538,10 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -588,13 +549,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -602,13 +563,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -616,13 +577,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -630,13 +591,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -644,13 +605,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -658,13 +619,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -672,13 +633,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -702,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -716,10 +677,10 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -730,136 +691,136 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -867,13 +828,13 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -897,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -905,44 +866,44 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -953,108 +914,108 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1062,13 +1023,13 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
